--- a/Protokolle/Zeitplan.xlsx
+++ b/Protokolle/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dokumente\[Meine Dokumente]\[Schule]\FH\[Lehrveranstaltungen]\WS1\ITP\FHTW Robotics Challenge 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_A091CD308F729AB65B00E12A3C6627936C37044C" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_A091CD308F729AB65B00E12A3C6627936C37044C" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{A1646C92-2230-4C37-8C11-8291CA7D35BF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Zeitplan</t>
   </si>
@@ -50,6 +50,21 @@
   </si>
   <si>
     <t>bis</t>
+  </si>
+  <si>
+    <t>Wöchentlich</t>
+  </si>
+  <si>
+    <t>Wochenberichte</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Laufend</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
   </si>
   <si>
     <t>Gesamter Zeitaufwand:</t>
@@ -405,18 +420,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,6 +435,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="L8" sqref="C8:L8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -824,12 +839,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="42"/>
-      <c r="E5" s="28"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="16"/>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="30" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="17" t="s">
@@ -847,7 +862,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="29"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="26"/>
       <c r="J6" s="20"/>
       <c r="K6" s="21"/>
@@ -863,7 +878,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="30"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
       <c r="K7" s="9" t="s">
@@ -875,36 +890,52 @@
       <c r="M7" s="19"/>
     </row>
     <row r="8" spans="3:13">
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="38"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="3:13">
-      <c r="C9" s="43"/>
+      <c r="C9" s="43" t="s">
+        <v>10</v>
+      </c>
       <c r="D9" s="44"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="18"/>
+      <c r="H9" s="18">
+        <v>5</v>
+      </c>
       <c r="I9" s="9"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
+      <c r="K9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="3:13">
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="44"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="18"/>
+      <c r="H10" s="18">
+        <v>27</v>
+      </c>
       <c r="I10" s="9"/>
       <c r="J10" s="1"/>
       <c r="K10" s="2"/>
@@ -1095,12 +1126,12 @@
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="25" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="14">
-        <f>H9+H11+H13+H12+H14+H15+H16+H17+H18+H19+H20+H22+H21+H23+H24</f>
-        <v>0</v>
+        <f>H9+H10+H11+H13+H12+H14+H15+H16+H17+H18+H19+H20+H22+H21+H23+H24</f>
+        <v>32</v>
       </c>
       <c r="I26" s="27">
         <f>I9+I11+I12+I13+I14+I15+I16+I17+I18+I19+I24+I20+I22</f>
@@ -1111,12 +1142,13 @@
       <c r="L26" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="C3:L4"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Protokolle/Zeitplan.xlsx
+++ b/Protokolle/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dokumente\[Meine Dokumente]\[Schule]\FH\[Lehrveranstaltungen]\WS1\ITP\FHTW Robotics Challenge 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_A091CD308F729AB65B00E12A3C6627936C37044C" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{A1646C92-2230-4C37-8C11-8291CA7D35BF}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="11_A091CD308F729AB65B00E12A3C6627936C37044C" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{7EB60220-E9D0-4448-8870-3069D4065F1F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Zeitplan</t>
   </si>
@@ -67,7 +67,97 @@
     <t>Dokumentation</t>
   </si>
   <si>
+    <t>29.03.</t>
+  </si>
+  <si>
+    <t>Konstruktion (Alpha)</t>
+  </si>
+  <si>
+    <t>06.04.</t>
+  </si>
+  <si>
+    <t>Einrichten AWS</t>
+  </si>
+  <si>
+    <t>10.04.</t>
+  </si>
+  <si>
+    <t>Kennenlernen v. AWS</t>
+  </si>
+  <si>
+    <t>####</t>
+  </si>
+  <si>
+    <t>05.04.</t>
+  </si>
+  <si>
+    <t>22.04.</t>
+  </si>
+  <si>
+    <t>Erstellung erster (provisorischer) Skill</t>
+  </si>
+  <si>
+    <t>15.04.</t>
+  </si>
+  <si>
+    <t>Kennenlernen der Programmiersprache</t>
+  </si>
+  <si>
+    <t>Erstellung erster (provisorischer) EV3-Programme</t>
+  </si>
+  <si>
+    <t>29.04.</t>
+  </si>
+  <si>
+    <t>Erweiterung d. Skills</t>
+  </si>
+  <si>
+    <t>Erweiterung d. EV3-Programme</t>
+  </si>
+  <si>
+    <t>04.05.</t>
+  </si>
+  <si>
+    <t>Recherche zur Implementierung einer Schnittstelle</t>
+  </si>
+  <si>
+    <t>06.05.</t>
+  </si>
+  <si>
+    <t>Implementierung der Schnittstelle (AWS zu Brick)</t>
+  </si>
+  <si>
+    <t>21.05.</t>
+  </si>
+  <si>
+    <t>Ermöglichung einer Befehlskombination</t>
+  </si>
+  <si>
+    <t>28.05.</t>
+  </si>
+  <si>
+    <t>Konstruktion (Omega)</t>
+  </si>
+  <si>
+    <t>10.06.</t>
+  </si>
+  <si>
+    <t>Beseitung v. Bugs</t>
+  </si>
+  <si>
+    <t>01.06.</t>
+  </si>
+  <si>
+    <t>17.06.</t>
+  </si>
+  <si>
+    <t>Vorbereitung der Endpräsentation</t>
+  </si>
+  <si>
     <t>Gesamter Zeitaufwand:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = Angefangen aber noch nicht beendet</t>
   </si>
 </sst>
 </file>
@@ -787,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:M26"/>
+  <dimension ref="C2:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -954,196 +1044,352 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="3:13">
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1.5</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="3:13">
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="9"/>
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="3:13">
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="18">
+        <v>12</v>
+      </c>
+      <c r="I14" s="9">
+        <v>3</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="3:13">
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="18"/>
+      <c r="H15" s="18">
+        <v>20</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="3:13">
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="18"/>
+      <c r="H16" s="18">
+        <v>15</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="3:12">
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="18"/>
+      <c r="H17" s="18">
+        <v>15</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="3:12">
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="18"/>
+      <c r="H18" s="18">
+        <v>25</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="1"/>
       <c r="K18" s="11"/>
       <c r="L18" s="23"/>
     </row>
     <row r="19" spans="3:12">
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="E19" s="11"/>
-      <c r="F19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="18">
+        <v>22</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="1"/>
       <c r="K19" s="11"/>
       <c r="L19" s="23"/>
     </row>
     <row r="20" spans="3:12">
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
+      <c r="C20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="18"/>
+      <c r="H20" s="18">
+        <v>15</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="1"/>
       <c r="K20" s="11"/>
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="3:12">
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
+      <c r="C21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="E21" s="11"/>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18">
+        <v>12</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="1"/>
       <c r="K21" s="9"/>
       <c r="L21" s="23"/>
     </row>
     <row r="22" spans="3:12">
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
+      <c r="C22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="18"/>
+      <c r="H22" s="18">
+        <v>10</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="1"/>
       <c r="K22" s="9"/>
       <c r="L22" s="23"/>
     </row>
     <row r="23" spans="3:12">
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="E23" s="11"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="18"/>
+      <c r="H23" s="18">
+        <v>15</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="1"/>
       <c r="K23" s="9"/>
       <c r="L23" s="23"/>
     </row>
     <row r="24" spans="3:12">
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="E24" s="11"/>
-      <c r="F24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="18"/>
+      <c r="H24" s="18">
+        <v>10</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="1"/>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="3:12">
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="C25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="18"/>
+      <c r="H25" s="18">
+        <v>10</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="1"/>
       <c r="K25" s="2"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" ht="16.5" thickBot="1">
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14">
-        <f>H9+H10+H11+H13+H12+H14+H15+H16+H17+H18+H19+H20+H22+H21+H23+H24</f>
-        <v>32</v>
-      </c>
-      <c r="I26" s="27">
+    <row r="26" spans="3:12">
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" ht="16.5" thickBot="1">
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14">
+        <f>H9+H10+H11+H13+H12+H14+H15+H16+H17+H18+H19+H20+H22+H21+H23+H24+H25</f>
+        <v>215</v>
+      </c>
+      <c r="I28" s="27">
         <f>I9+I11+I12+I13+I14+I15+I16+I17+I18+I19+I24+I20+I22</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="40"/>
+        <v>5.5</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K28:L28"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="K5:L5"/>

--- a/Protokolle/Zeitplan.xlsx
+++ b/Protokolle/Zeitplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dokumente\[Meine Dokumente]\[Schule]\FH\[Lehrveranstaltungen]\WS1\ITP\FHTW Robotics Challenge 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="11_A091CD308F729AB65B00E12A3C6627936C37044C" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{7EB60220-E9D0-4448-8870-3069D4065F1F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{54EA0424-4704-43EE-B8DD-4C2AF375864F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,11 +879,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
     <col min="3" max="4" width="13.7109375" customWidth="1"/>
@@ -897,8 +897,8 @@
     <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" ht="15.75" thickBot="1"/>
-    <row r="3" spans="3:13" ht="18.75" customHeight="1">
+    <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="47" t="s">
         <v>0</v>
       </c>
@@ -912,7 +912,7 @@
       <c r="K3" s="48"/>
       <c r="L3" s="49"/>
     </row>
-    <row r="4" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
+    <row r="4" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="50"/>
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
@@ -924,7 +924,7 @@
       <c r="K4" s="51"/>
       <c r="L4" s="52"/>
     </row>
-    <row r="5" spans="3:13" ht="16.5" thickBot="1">
+    <row r="5" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="41" t="s">
         <v>1</v>
       </c>
@@ -946,7 +946,7 @@
       </c>
       <c r="L5" s="46"/>
     </row>
-    <row r="6" spans="3:13" ht="15.75">
+    <row r="6" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="7"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -958,7 +958,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="3:13">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
@@ -979,7 +979,7 @@
       </c>
       <c r="M7" s="19"/>
     </row>
-    <row r="8" spans="3:13">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -991,7 +991,7 @@
       <c r="K8" s="34"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="3:13">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="43" t="s">
         <v>10</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="3:13">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="43" t="s">
         <v>13</v>
       </c>
@@ -1031,7 +1031,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="3:13">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -1043,7 +1043,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="3:13">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:13">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="10" t="s">
         <v>15</v>
       </c>
@@ -1091,7 +1091,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="3:13">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14" s="10" t="s">
         <v>15</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="3:13">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1130,12 +1130,14 @@
       <c r="H15" s="18">
         <v>20</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="9">
+        <v>4</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="3:13">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
         <v>22</v>
       </c>
@@ -1150,12 +1152,14 @@
       <c r="H16" s="18">
         <v>15</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
         <v>19</v>
       </c>
@@ -1175,7 +1179,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="10" t="s">
         <v>23</v>
       </c>
@@ -1195,7 +1199,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="23"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1215,7 +1219,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="23"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="10" t="s">
         <v>28</v>
       </c>
@@ -1235,7 +1239,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="23"/>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1255,7 +1259,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="23"/>
     </row>
-    <row r="22" spans="3:12">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="10" t="s">
         <v>33</v>
       </c>
@@ -1275,7 +1279,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="23"/>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>35</v>
       </c>
@@ -1295,7 +1299,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="23"/>
     </row>
-    <row r="24" spans="3:12">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="s">
         <v>19</v>
       </c>
@@ -1315,7 +1319,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1335,7 +1339,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -1347,7 +1351,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1359,7 +1363,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" ht="16.5" thickBot="1">
+    <row r="28" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -1373,13 +1377,13 @@
       </c>
       <c r="I28" s="27">
         <f>I9+I11+I12+I13+I14+I15+I16+I17+I18+I19+I24+I20+I22</f>
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="39"/>
       <c r="L28" s="40"/>
     </row>
-    <row r="30" spans="3:12">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>21</v>
       </c>

--- a/Protokolle/Zeitplan.xlsx
+++ b/Protokolle/Zeitplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19321"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{54EA0424-4704-43EE-B8DD-4C2AF375864F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="5_{CADF2D00-72D3-44D1-81CC-EF5BA6381C2A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{DA409F5F-A50B-4E93-9FE5-FE63F96614B6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>Zeitplan</t>
   </si>
@@ -46,6 +46,21 @@
     <t>to</t>
   </si>
   <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>Potesil</t>
+  </si>
+  <si>
+    <t>Loh</t>
+  </si>
+  <si>
+    <t>Dittmann</t>
+  </si>
+  <si>
+    <t>Klaassen</t>
+  </si>
+  <si>
     <t>von</t>
   </si>
   <si>
@@ -106,6 +121,15 @@
     <t>Erstellung erster (provisorischer) EV3-Programme</t>
   </si>
   <si>
+    <t>20.04.</t>
+  </si>
+  <si>
+    <t>26.04.</t>
+  </si>
+  <si>
+    <t>Vorbereitung Metareview</t>
+  </si>
+  <si>
     <t>29.04.</t>
   </si>
   <si>
@@ -125,6 +149,12 @@
   </si>
   <si>
     <t>Implementierung der Schnittstelle (AWS zu Brick)</t>
+  </si>
+  <si>
+    <t>09.05.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metareview </t>
   </si>
   <si>
     <t>21.05.</t>
@@ -164,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -251,21 +281,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -386,17 +401,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -426,9 +430,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -440,10 +442,89 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
@@ -453,11 +534,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,112 +546,142 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -877,13 +988,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:M30"/>
+  <dimension ref="C3:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="I22" sqref="I22:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
     <col min="3" max="4" width="13.7109375" customWidth="1"/>
@@ -891,74 +1002,91 @@
     <col min="6" max="6" width="54.42578125" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="17.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="47" t="s">
+    <row r="3" spans="3:17" ht="18.75" customHeight="1">
+      <c r="C3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="49"/>
-    </row>
-    <row r="4" spans="3:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="52"/>
-    </row>
-    <row r="5" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="41" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="42"/>
+    </row>
+    <row r="4" spans="3:17" ht="15.75" customHeight="1">
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="45"/>
+    </row>
+    <row r="5" spans="3:17" ht="15.75">
+      <c r="C5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="15" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="30" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="45" t="s">
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="46"/>
-    </row>
-    <row r="6" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P5" s="39"/>
+    </row>
+    <row r="6" spans="3:17" ht="15.75">
       <c r="C6" s="7"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H6" s="57"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="3:17">
       <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
@@ -968,437 +1096,691 @@
       <c r="E7" s="9"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="9" t="s">
+      <c r="H7" s="58"/>
+      <c r="I7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="J7" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="36"/>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="43" t="s">
+      <c r="K7" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="38"/>
+      <c r="L7" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="3:17">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="29"/>
+    </row>
+    <row r="9" spans="3:17">
+      <c r="C9" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="18">
+      <c r="H9" s="60">
         <v>5</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="44"/>
+      <c r="I9" s="56">
+        <f t="shared" ref="I9:I11" si="0">SUM(J9:M9)</f>
+        <v>1.9999999999999978</v>
+      </c>
+      <c r="J9" s="52">
+        <f>6*0.333333333333333</f>
+        <v>1.9999999999999978</v>
+      </c>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17">
+      <c r="C10" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="37"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="18">
+      <c r="H10" s="60">
         <v>27</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I10" s="56">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J10" s="52">
+        <v>11</v>
+      </c>
+      <c r="K10" s="52">
+        <v>3</v>
+      </c>
+      <c r="L10" s="52">
+        <v>3</v>
+      </c>
+      <c r="M10" s="9">
+        <v>3</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="3:17">
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="9"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H11" s="60"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="3:17">
       <c r="C12" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="18">
+      <c r="H12" s="60">
         <v>1</v>
       </c>
-      <c r="I12" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I12" s="56">
+        <f>SUM(J12:M12)</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52">
+        <v>1</v>
+      </c>
+      <c r="M12" s="9">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17">
       <c r="C13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="18">
+      <c r="H13" s="60">
         <v>1</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="56">
+        <f t="shared" ref="I13:I29" si="1">SUM(J13:M13)</f>
+        <v>8</v>
+      </c>
+      <c r="J13" s="52">
         <v>1</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K13" s="52">
+        <v>4</v>
+      </c>
+      <c r="L13" s="52">
+        <v>3</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="3:17">
       <c r="C14" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="18">
+        <v>26</v>
+      </c>
+      <c r="H14" s="60">
         <v>12</v>
       </c>
-      <c r="I14" s="9">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I14" s="56">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J14" s="52">
+        <v>2</v>
+      </c>
+      <c r="K14" s="52">
+        <v>4</v>
+      </c>
+      <c r="L14" s="52">
+        <v>2</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="3:17">
       <c r="C15" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="18">
+      <c r="H15" s="60">
         <v>20</v>
       </c>
-      <c r="I15" s="9">
-        <v>4</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I15" s="56">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52">
+        <v>3</v>
+      </c>
+      <c r="L15" s="52">
+        <v>2</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="3:17">
       <c r="C16" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="18">
+      <c r="H16" s="60">
         <v>15</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="56">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J16" s="52">
+        <v>3</v>
+      </c>
+      <c r="K16" s="52">
         <v>1</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="52"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16">
       <c r="C17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="18">
+      <c r="H17" s="60">
         <v>15</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I17" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16">
       <c r="C18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="18">
-        <v>25</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="23"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H18" s="60">
+        <v>5</v>
+      </c>
+      <c r="I18" s="56">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J18" s="52">
+        <v>3</v>
+      </c>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16">
       <c r="C19" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="18">
-        <v>22</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="23"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H19" s="60">
+        <v>25</v>
+      </c>
+      <c r="I19" s="56">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52">
+        <v>4</v>
+      </c>
+      <c r="L19" s="52">
+        <v>4</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="20"/>
+    </row>
+    <row r="20" spans="3:16">
       <c r="C20" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="18">
-        <v>15</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="23"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H20" s="60">
+        <v>22</v>
+      </c>
+      <c r="I20" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="20"/>
+    </row>
+    <row r="21" spans="3:16">
       <c r="C21" s="10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="18">
-        <v>12</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="23"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H21" s="60">
+        <v>15</v>
+      </c>
+      <c r="I21" s="56">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J21" s="52">
+        <v>1</v>
+      </c>
+      <c r="K21" s="52">
+        <v>4</v>
+      </c>
+      <c r="L21" s="52"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="20"/>
+    </row>
+    <row r="22" spans="3:16">
       <c r="C22" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="18">
-        <v>10</v>
-      </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="23"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H22" s="60">
+        <v>12</v>
+      </c>
+      <c r="I22" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="20"/>
+    </row>
+    <row r="23" spans="3:16">
       <c r="C23" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="18">
-        <v>15</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="23"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H23" s="60">
+        <v>1</v>
+      </c>
+      <c r="I23" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="20"/>
+    </row>
+    <row r="24" spans="3:16">
       <c r="C24" s="10" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="18">
+      <c r="H24" s="60">
         <v>10</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I24" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="20"/>
+    </row>
+    <row r="25" spans="3:16">
       <c r="C25" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="18">
+      <c r="H25" s="60">
+        <v>15</v>
+      </c>
+      <c r="I25" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="20"/>
+    </row>
+    <row r="26" spans="3:16">
+      <c r="C26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="60">
         <v>10</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="I26" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16">
+      <c r="C27" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14">
-        <f>H9+H10+H11+H13+H12+H14+H15+H16+H17+H18+H19+H20+H22+H21+H23+H24+H25</f>
+      <c r="H27" s="60">
+        <v>10</v>
+      </c>
+      <c r="I27" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16">
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16">
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" ht="15.75">
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="61">
+        <f>H9+H10+H11+H13+H12+H14+H15+H16+H17+H19+H20+H21+H24+H22+H25+H26+H27</f>
         <v>215</v>
       </c>
-      <c r="I28" s="27">
-        <f>I9+I11+I12+I13+I14+I15+I16+I17+I18+I19+I24+I20+I22</f>
-        <v>10.5</v>
-      </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="40"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" t="s">
-        <v>45</v>
+      <c r="I30" s="61">
+        <f>SUM(I9:I29)</f>
+        <v>65</v>
+      </c>
+      <c r="J30" s="62">
+        <f>SUM(J9:J29)</f>
+        <v>23</v>
+      </c>
+      <c r="K30" s="62">
+        <f t="shared" ref="K30:M30" si="2">SUM(K9:K29)</f>
+        <v>23</v>
+      </c>
+      <c r="L30" s="62">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="M30" s="62">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N30" s="13"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="33"/>
+    </row>
+    <row r="32" spans="3:16">
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="K28:L28"/>
+  <mergeCells count="7">
+    <mergeCell ref="O30:P30"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="C3:L4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="C3:P4"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Protokolle/Zeitplan.xlsx
+++ b/Protokolle/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="5_{CADF2D00-72D3-44D1-81CC-EF5BA6381C2A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{DA409F5F-A50B-4E93-9FE5-FE63F96614B6}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="5_{CADF2D00-72D3-44D1-81CC-EF5BA6381C2A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{F6051250-7DFC-44D6-A967-014D7EFFAF45}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+  <si>
+    <t>****** Anmerkung: Zeitplan und Stundentafel stimmen nicht überein, da in der Studentafel auf Eintragung v. Dokumentation und Wochenberichten verzichtet wurde</t>
+  </si>
   <si>
     <t>Zeitplan</t>
   </si>
@@ -88,6 +91,9 @@
     <t>Konstruktion (Alpha)</t>
   </si>
   <si>
+    <t>####</t>
+  </si>
+  <si>
     <t>06.04.</t>
   </si>
   <si>
@@ -100,9 +106,6 @@
     <t>Kennenlernen v. AWS</t>
   </si>
   <si>
-    <t>####</t>
-  </si>
-  <si>
     <t>05.04.</t>
   </si>
   <si>
@@ -187,7 +190,7 @@
     <t>Gesamter Zeitaufwand:</t>
   </si>
   <si>
-    <t xml:space="preserve"> = Angefangen aber noch nicht beendet</t>
+    <t> = Goal finished</t>
   </si>
 </sst>
 </file>
@@ -563,9 +566,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -597,55 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -682,6 +634,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -988,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:Q32"/>
+  <dimension ref="C1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="I22" sqref="I22:I24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1010,65 +1013,70 @@
     <col min="17" max="17" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:17">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C3" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="42"/>
+      <c r="C3" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="56"/>
     </row>
     <row r="4" spans="3:17" ht="15.75" customHeight="1">
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="45"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59"/>
     </row>
     <row r="5" spans="3:17" ht="15.75">
-      <c r="C5" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="24" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="38" t="s">
+      <c r="I5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="39"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="53"/>
     </row>
     <row r="6" spans="3:17" ht="15.75">
       <c r="C6" s="7"/>
@@ -1076,127 +1084,127 @@
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="19"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="18"/>
     </row>
     <row r="7" spans="3:17">
       <c r="C7" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="50" t="s">
+      <c r="H7" s="41"/>
+      <c r="I7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="J7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="K7" s="33" t="s">
         <v>11</v>
       </c>
+      <c r="L7" s="33" t="s">
+        <v>12</v>
+      </c>
       <c r="M7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="16"/>
+      <c r="P7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="15"/>
     </row>
     <row r="8" spans="3:17">
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="29"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="28"/>
     </row>
     <row r="9" spans="3:17">
-      <c r="C9" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="31"/>
+      <c r="C9" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="60">
+      <c r="H9" s="43">
         <v>5</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="39">
         <f t="shared" ref="I9:I11" si="0">SUM(J9:M9)</f>
         <v>1.9999999999999978</v>
       </c>
-      <c r="J9" s="52">
+      <c r="J9" s="35">
         <f>6*0.333333333333333</f>
         <v>1.9999999999999978</v>
       </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="17"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="3:17">
-      <c r="C10" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="37"/>
+      <c r="C10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="51"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="60">
+      <c r="H10" s="43">
         <v>27</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="39">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="J10" s="52">
+        <v>32</v>
+      </c>
+      <c r="J10" s="35">
         <v>11</v>
       </c>
-      <c r="K10" s="52">
-        <v>3</v>
-      </c>
-      <c r="L10" s="52">
-        <v>3</v>
+      <c r="K10" s="35">
+        <v>7</v>
+      </c>
+      <c r="L10" s="35">
+        <v>7</v>
       </c>
       <c r="M10" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="2"/>
@@ -1208,11 +1216,11 @@
       <c r="E11" s="11"/>
       <c r="F11" s="9"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="9"/>
       <c r="N11" s="1"/>
       <c r="O11" s="2"/>
@@ -1220,26 +1228,28 @@
     </row>
     <row r="12" spans="3:17">
       <c r="C12" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="60">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="43">
         <v>1</v>
       </c>
-      <c r="I12" s="56">
+      <c r="I12" s="39">
         <f>SUM(J12:M12)</f>
         <v>2</v>
       </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52">
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35">
         <v>1</v>
       </c>
       <c r="M12" s="9">
@@ -1247,104 +1257,112 @@
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="3:17">
       <c r="C13" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="60">
+      <c r="H13" s="43">
         <v>1</v>
       </c>
-      <c r="I13" s="56">
+      <c r="I13" s="39">
         <f t="shared" ref="I13:I29" si="1">SUM(J13:M13)</f>
-        <v>8</v>
-      </c>
-      <c r="J13" s="52">
+        <v>9</v>
+      </c>
+      <c r="J13" s="35">
         <v>1</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="35">
         <v>4</v>
       </c>
-      <c r="L13" s="52">
+      <c r="L13" s="35">
         <v>3</v>
       </c>
-      <c r="M13" s="9"/>
+      <c r="M13" s="9">
+        <v>1</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="2"/>
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="3:17">
       <c r="C14" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="60">
+        <v>23</v>
+      </c>
+      <c r="H14" s="43">
         <v>12</v>
       </c>
-      <c r="I14" s="56">
+      <c r="I14" s="39">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="J14" s="52">
+        <v>9</v>
+      </c>
+      <c r="J14" s="35">
         <v>2</v>
       </c>
-      <c r="K14" s="52">
+      <c r="K14" s="35">
         <v>4</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="35">
         <v>2</v>
       </c>
-      <c r="M14" s="9"/>
+      <c r="M14" s="9">
+        <v>1</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="2"/>
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="3:17">
       <c r="C15" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="60">
+        <v>30</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="43">
         <v>20</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="39">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52">
+      <c r="J15" s="35"/>
+      <c r="K15" s="35">
         <v>3</v>
       </c>
-      <c r="L15" s="52">
+      <c r="L15" s="35">
         <v>2</v>
       </c>
       <c r="M15" s="9"/>
@@ -1354,310 +1372,326 @@
     </row>
     <row r="16" spans="3:17">
       <c r="C16" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="60">
+        <v>32</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="43">
         <v>15</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I16" s="39">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J16" s="52">
+        <v>7</v>
+      </c>
+      <c r="J16" s="35">
         <v>3</v>
       </c>
-      <c r="K16" s="52">
+      <c r="K16" s="35">
         <v>1</v>
       </c>
-      <c r="L16" s="52"/>
-      <c r="M16" s="9"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="9">
+        <v>3</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="2"/>
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="3:16">
       <c r="C17" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="60">
+        <v>33</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="43">
         <v>15</v>
       </c>
-      <c r="I17" s="56">
+      <c r="I17" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="9">
+        <v>2</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="2"/>
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="3:16">
       <c r="C18" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="60">
+      <c r="H18" s="43">
         <v>5</v>
       </c>
-      <c r="I18" s="56">
+      <c r="I18" s="39">
         <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J18" s="35">
         <v>3</v>
       </c>
-      <c r="J18" s="52">
-        <v>3</v>
-      </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="9"/>
+      <c r="K18" s="35">
+        <v>1</v>
+      </c>
+      <c r="L18" s="35">
+        <v>1</v>
+      </c>
+      <c r="M18" s="9">
+        <v>1</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="2"/>
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="3:16">
       <c r="C19" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="60">
+      <c r="H19" s="43">
         <v>25</v>
       </c>
-      <c r="I19" s="56">
+      <c r="I19" s="39">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52">
+      <c r="J19" s="35"/>
+      <c r="K19" s="35">
         <v>4</v>
       </c>
-      <c r="L19" s="52">
+      <c r="L19" s="35">
         <v>4</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="1"/>
       <c r="O19" s="11"/>
-      <c r="P19" s="20"/>
+      <c r="P19" s="19"/>
     </row>
     <row r="20" spans="3:16">
       <c r="C20" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="60">
+      <c r="H20" s="43">
         <v>22</v>
       </c>
-      <c r="I20" s="56">
+      <c r="I20" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="9">
+        <v>2</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="11"/>
-      <c r="P20" s="20"/>
+      <c r="P20" s="19"/>
     </row>
     <row r="21" spans="3:16">
       <c r="C21" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="60">
+      <c r="H21" s="43">
         <v>15</v>
       </c>
-      <c r="I21" s="56">
+      <c r="I21" s="39">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J21" s="52">
+      <c r="J21" s="35">
         <v>1</v>
       </c>
-      <c r="K21" s="52">
+      <c r="K21" s="35">
         <v>4</v>
       </c>
-      <c r="L21" s="52"/>
+      <c r="L21" s="35"/>
       <c r="M21" s="9"/>
       <c r="N21" s="1"/>
       <c r="O21" s="11"/>
-      <c r="P21" s="20"/>
+      <c r="P21" s="19"/>
     </row>
     <row r="22" spans="3:16">
       <c r="C22" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="60">
+      <c r="H22" s="43">
         <v>12</v>
       </c>
-      <c r="I22" s="56">
+      <c r="I22" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
       <c r="M22" s="9"/>
       <c r="N22" s="1"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="20"/>
+      <c r="P22" s="19"/>
     </row>
     <row r="23" spans="3:16">
       <c r="C23" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="60">
+      <c r="H23" s="43">
         <v>1</v>
       </c>
-      <c r="I23" s="56">
+      <c r="I23" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="9"/>
       <c r="N23" s="1"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="20"/>
+      <c r="P23" s="19"/>
     </row>
     <row r="24" spans="3:16">
       <c r="C24" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="60">
+      <c r="H24" s="43">
         <v>10</v>
       </c>
-      <c r="I24" s="56">
+      <c r="I24" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
       <c r="M24" s="9"/>
       <c r="N24" s="1"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="20"/>
+      <c r="P24" s="19"/>
     </row>
     <row r="25" spans="3:16">
       <c r="C25" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="60">
+      <c r="H25" s="43">
         <v>15</v>
       </c>
-      <c r="I25" s="56">
+      <c r="I25" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
       <c r="M25" s="9"/>
       <c r="N25" s="1"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="20"/>
+      <c r="P25" s="19"/>
     </row>
     <row r="26" spans="3:16">
       <c r="C26" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="60">
+      <c r="H26" s="43">
         <v>10</v>
       </c>
-      <c r="I26" s="56">
+      <c r="I26" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="9"/>
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
@@ -1665,26 +1699,26 @@
     </row>
     <row r="27" spans="3:16">
       <c r="C27" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="60">
+      <c r="H27" s="43">
         <v>10</v>
       </c>
-      <c r="I27" s="56">
+      <c r="I27" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="9"/>
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
@@ -1696,14 +1730,14 @@
       <c r="E28" s="11"/>
       <c r="F28" s="9"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="56">
+      <c r="H28" s="43"/>
+      <c r="I28" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="9"/>
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
@@ -1715,14 +1749,14 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="56">
+      <c r="H29" s="43"/>
+      <c r="I29" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
       <c r="M29" s="9"/>
       <c r="N29" s="1"/>
       <c r="O29" s="2"/>
@@ -1732,44 +1766,44 @@
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="22" t="s">
-        <v>54</v>
+      <c r="F30" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="G30" s="13"/>
-      <c r="H30" s="61">
+      <c r="H30" s="44">
         <f>H9+H10+H11+H13+H12+H14+H15+H16+H17+H19+H20+H21+H24+H22+H25+H26+H27</f>
         <v>215</v>
       </c>
-      <c r="I30" s="61">
+      <c r="I30" s="44">
         <f>SUM(I9:I29)</f>
-        <v>65</v>
-      </c>
-      <c r="J30" s="62">
+        <v>89</v>
+      </c>
+      <c r="J30" s="45">
         <f>SUM(J9:J29)</f>
         <v>23</v>
       </c>
-      <c r="K30" s="62">
+      <c r="K30" s="45">
         <f t="shared" ref="K30:M30" si="2">SUM(K9:K29)</f>
-        <v>23</v>
-      </c>
-      <c r="L30" s="62">
+        <v>28</v>
+      </c>
+      <c r="L30" s="45">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="M30" s="62">
+        <v>20</v>
+      </c>
+      <c r="M30" s="45">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N30" s="13"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="33"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="47"/>
     </row>
     <row r="32" spans="3:16">
       <c r="G32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Zeitplan.xlsx
+++ b/Protokolle/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="5_{CADF2D00-72D3-44D1-81CC-EF5BA6381C2A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{F6051250-7DFC-44D6-A967-014D7EFFAF45}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="5_{CADF2D00-72D3-44D1-81CC-EF5BA6381C2A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{FD77648F-97DE-4290-AEFC-BC38BDA73432}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
-  <si>
-    <t>****** Anmerkung: Zeitplan und Stundentafel stimmen nicht überein, da in der Studentafel auf Eintragung v. Dokumentation und Wochenberichten verzichtet wurde</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+  <si>
+    <t>****** Anmerkung: Zeitplan und Stundentafel weichen voneinander ab, da in der Studentafel weitestgehend auf Eintragung v. Dokumentation und Wochenberichten verzichtet wurde</t>
   </si>
   <si>
     <t>Zeitplan</t>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1192,16 +1192,16 @@
       </c>
       <c r="I10" s="39">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J10" s="35">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10" s="35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M10" s="9">
         <v>7</v>
@@ -1297,8 +1297,12 @@
         <v>1</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="3"/>
+      <c r="O13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="3:17">
       <c r="C14" s="10" t="s">
@@ -1334,8 +1338,12 @@
         <v>1</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="3"/>
+      <c r="O14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="3:17">
       <c r="C15" s="10" t="s">
@@ -1367,8 +1375,12 @@
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="3"/>
+      <c r="O15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="3:17">
       <c r="C16" s="10" t="s">
@@ -1402,8 +1414,12 @@
         <v>3</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="3"/>
+      <c r="O16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="3:16">
       <c r="C17" s="10" t="s">
@@ -1433,8 +1449,12 @@
         <v>2</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="3"/>
+      <c r="O17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="3:16">
       <c r="C18" s="10" t="s">
@@ -1449,23 +1469,23 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I18" s="39">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J18" s="35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K18" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="2"/>
@@ -1602,7 +1622,7 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I23" s="39">
         <f t="shared" si="1"/>
@@ -1776,23 +1796,23 @@
       </c>
       <c r="I30" s="44">
         <f>SUM(I9:I29)</f>
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J30" s="45">
         <f>SUM(J9:J29)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K30" s="45">
         <f t="shared" ref="K30:M30" si="2">SUM(K9:K29)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="45">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M30" s="45">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="46"/>

--- a/Protokolle/Zeitplan.xlsx
+++ b/Protokolle/Zeitplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="5_{CADF2D00-72D3-44D1-81CC-EF5BA6381C2A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{FD77648F-97DE-4290-AEFC-BC38BDA73432}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="5_{CADF2D00-72D3-44D1-81CC-EF5BA6381C2A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{C7116B58-0F25-45E5-8D0E-70C08426ED14}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -272,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -285,19 +285,37 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -305,14 +323,89 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -321,16 +414,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right/>
@@ -341,10 +469,53 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -352,6 +523,30 @@
     <border>
       <left/>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -361,171 +556,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom style="thick">
@@ -537,11 +572,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,142 +584,145 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -993,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="I1" sqref="C1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1005,10 +1043,10 @@
     <col min="6" max="6" width="54.42578125" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="17.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" customWidth="1"/>
     <col min="17" max="17" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1019,64 +1057,64 @@
       </c>
     </row>
     <row r="3" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
     </row>
     <row r="4" spans="3:17" ht="15.75" customHeight="1">
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="60"/>
     </row>
     <row r="5" spans="3:17" ht="15.75">
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="31" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="23" t="s">
+      <c r="G5" s="42"/>
+      <c r="H5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="52" t="s">
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="53"/>
+      <c r="P5" s="54"/>
     </row>
     <row r="6" spans="3:17" ht="15.75">
       <c r="C6" s="7"/>
@@ -1084,15 +1122,15 @@
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="18"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="17"/>
     </row>
     <row r="7" spans="3:17">
       <c r="C7" s="8" t="s">
@@ -1104,17 +1142,17 @@
       <c r="E7" s="9"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="37" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="27" t="s">
         <v>12</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -1124,52 +1162,52 @@
       <c r="O7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="15"/>
+      <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="3:17">
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="28"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="25"/>
     </row>
     <row r="9" spans="3:17">
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="9" t="s">
+      <c r="D9" s="52"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="39" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="43">
+      <c r="H9" s="36">
         <v>5</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="32">
         <f t="shared" ref="I9:I11" si="0">SUM(J9:M9)</f>
-        <v>1.9999999999999978</v>
-      </c>
-      <c r="J9" s="35">
-        <f>6*0.333333333333333</f>
-        <v>1.9999999999999978</v>
-      </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
+        <v>3</v>
+      </c>
+      <c r="J9" s="29">
+        <f>10*0.3</f>
+        <v>3</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="16"/>
+      <c r="N9" s="15"/>
       <c r="O9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1178,33 +1216,33 @@
       </c>
     </row>
     <row r="10" spans="3:17">
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="43">
+      <c r="H10" s="36">
         <v>27</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="32">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="J10" s="35">
-        <v>12</v>
-      </c>
-      <c r="K10" s="35">
+        <v>41</v>
+      </c>
+      <c r="J10" s="29">
+        <v>15</v>
+      </c>
+      <c r="K10" s="29">
+        <v>9</v>
+      </c>
+      <c r="L10" s="29">
+        <v>9</v>
+      </c>
+      <c r="M10" s="9">
         <v>8</v>
-      </c>
-      <c r="L10" s="35">
-        <v>8</v>
-      </c>
-      <c r="M10" s="9">
-        <v>7</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="2"/>
@@ -1216,11 +1254,11 @@
       <c r="E11" s="11"/>
       <c r="F11" s="9"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
       <c r="M11" s="9"/>
       <c r="N11" s="1"/>
       <c r="O11" s="2"/>
@@ -1234,22 +1272,22 @@
         <v>21</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="39" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="36">
         <v>1</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="32">
         <f>SUM(J12:M12)</f>
         <v>2</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35">
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29">
         <v>1</v>
       </c>
       <c r="M12" s="9">
@@ -1277,20 +1315,20 @@
       <c r="G13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="36">
         <v>1</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="32">
         <f t="shared" ref="I13:I29" si="1">SUM(J13:M13)</f>
         <v>9</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="29">
         <v>1</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="29">
         <v>4</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="29">
         <v>3</v>
       </c>
       <c r="M13" s="9">
@@ -1318,20 +1356,20 @@
       <c r="G14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="36">
         <v>12</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="32">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="29">
         <v>2</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="29">
         <v>4</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="29">
         <v>2</v>
       </c>
       <c r="M14" s="9">
@@ -1359,18 +1397,18 @@
       <c r="G15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="36">
         <v>20</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35">
+      <c r="J15" s="29"/>
+      <c r="K15" s="29">
         <v>3</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="29">
         <v>2</v>
       </c>
       <c r="M15" s="9"/>
@@ -1390,26 +1428,26 @@
         <v>31</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="39" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="36">
         <v>15</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="32">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="29">
         <v>3</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="29">
         <v>1</v>
       </c>
-      <c r="L16" s="35"/>
+      <c r="L16" s="29"/>
       <c r="M16" s="9">
         <v>3</v>
       </c>
@@ -1429,22 +1467,22 @@
         <v>29</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="39" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="43">
+      <c r="H17" s="36">
         <v>15</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
       <c r="M17" s="9">
         <v>2</v>
       </c>
@@ -1468,20 +1506,20 @@
         <v>36</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="43">
+      <c r="H18" s="36">
         <v>10</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="32">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="29">
         <v>5</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="29">
         <v>2</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="29">
         <v>2</v>
       </c>
       <c r="M18" s="9">
@@ -1503,24 +1541,24 @@
         <v>38</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="43">
+      <c r="H19" s="36">
         <v>25</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="32">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35">
-        <v>4</v>
-      </c>
-      <c r="L19" s="35">
+        <v>10</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29">
+        <v>6</v>
+      </c>
+      <c r="L19" s="29">
         <v>4</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="1"/>
       <c r="O19" s="11"/>
-      <c r="P19" s="19"/>
+      <c r="P19" s="18"/>
     </row>
     <row r="20" spans="3:16">
       <c r="C20" s="10" t="s">
@@ -1530,26 +1568,26 @@
         <v>37</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="39" t="s">
         <v>39</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="43">
+      <c r="H20" s="36">
         <v>22</v>
       </c>
-      <c r="I20" s="39">
+      <c r="I20" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="9">
         <v>2</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="11"/>
-      <c r="P20" s="19"/>
+      <c r="P20" s="18"/>
     </row>
     <row r="21" spans="3:16">
       <c r="C21" s="10" t="s">
@@ -1563,24 +1601,28 @@
         <v>41</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="43">
+      <c r="H21" s="36">
         <v>15</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="32">
         <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J21" s="29">
+        <v>1</v>
+      </c>
+      <c r="K21" s="29">
         <v>5</v>
       </c>
-      <c r="J21" s="35">
-        <v>1</v>
-      </c>
-      <c r="K21" s="35">
-        <v>4</v>
-      </c>
-      <c r="L21" s="35"/>
-      <c r="M21" s="9"/>
+      <c r="L21" s="29">
+        <v>3</v>
+      </c>
+      <c r="M21" s="9">
+        <v>3</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="11"/>
-      <c r="P21" s="19"/>
+      <c r="P21" s="18"/>
     </row>
     <row r="22" spans="3:16">
       <c r="C22" s="10" t="s">
@@ -1594,20 +1636,26 @@
         <v>43</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="43">
+      <c r="H22" s="36">
         <v>12</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29">
+        <v>8</v>
+      </c>
+      <c r="L22" s="29">
+        <v>5</v>
+      </c>
+      <c r="M22" s="9">
+        <v>6</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="19"/>
+      <c r="P22" s="18"/>
     </row>
     <row r="23" spans="3:16">
       <c r="C23" s="10" t="s">
@@ -1621,20 +1669,28 @@
         <v>45</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="43">
+      <c r="H23" s="36">
         <v>5</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="J23" s="29">
+        <v>1</v>
+      </c>
+      <c r="K23" s="29">
+        <v>1</v>
+      </c>
+      <c r="L23" s="29">
+        <v>1</v>
+      </c>
+      <c r="M23" s="9">
+        <v>1</v>
+      </c>
       <c r="N23" s="1"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="19"/>
+      <c r="P23" s="18"/>
     </row>
     <row r="24" spans="3:16">
       <c r="C24" s="10" t="s">
@@ -1648,20 +1704,20 @@
         <v>47</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="43">
+      <c r="H24" s="36">
         <v>10</v>
       </c>
-      <c r="I24" s="39">
+      <c r="I24" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="9"/>
       <c r="N24" s="1"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="19"/>
+      <c r="P24" s="18"/>
     </row>
     <row r="25" spans="3:16">
       <c r="C25" s="10" t="s">
@@ -1675,20 +1731,20 @@
         <v>49</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="43">
+      <c r="H25" s="36">
         <v>15</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="9"/>
       <c r="N25" s="1"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="19"/>
+      <c r="P25" s="18"/>
     </row>
     <row r="26" spans="3:16">
       <c r="C26" s="10" t="s">
@@ -1702,16 +1758,16 @@
         <v>51</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="43">
+      <c r="H26" s="36">
         <v>10</v>
       </c>
-      <c r="I26" s="39">
+      <c r="I26" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
       <c r="M26" s="9"/>
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
@@ -1729,17 +1785,25 @@
         <v>54</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="43">
+      <c r="H27" s="36">
         <v>10</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="J27" s="29">
+        <v>3</v>
+      </c>
+      <c r="K27" s="29">
+        <v>3</v>
+      </c>
+      <c r="L27" s="29">
+        <v>3</v>
+      </c>
+      <c r="M27" s="9">
+        <v>3</v>
+      </c>
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
       <c r="P27" s="3"/>
@@ -1750,14 +1814,14 @@
       <c r="E28" s="11"/>
       <c r="F28" s="9"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="39">
+      <c r="H28" s="36"/>
+      <c r="I28" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
       <c r="M28" s="9"/>
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
@@ -1769,14 +1833,14 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="39">
+      <c r="H29" s="36"/>
+      <c r="I29" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
       <c r="M29" s="9"/>
       <c r="N29" s="1"/>
       <c r="O29" s="2"/>
@@ -1786,37 +1850,37 @@
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="19" t="s">
         <v>55</v>
       </c>
       <c r="G30" s="13"/>
-      <c r="H30" s="44">
+      <c r="H30" s="37">
         <f>H9+H10+H11+H13+H12+H14+H15+H16+H17+H19+H20+H21+H24+H22+H25+H26+H27</f>
         <v>215</v>
       </c>
-      <c r="I30" s="44">
+      <c r="I30" s="37">
         <f>SUM(I9:I29)</f>
-        <v>97</v>
-      </c>
-      <c r="J30" s="45">
+        <v>148</v>
+      </c>
+      <c r="J30" s="38">
         <f>SUM(J9:J29)</f>
-        <v>26</v>
-      </c>
-      <c r="K30" s="45">
+        <v>34</v>
+      </c>
+      <c r="K30" s="38">
         <f t="shared" ref="K30:M30" si="2">SUM(K9:K29)</f>
-        <v>30</v>
-      </c>
-      <c r="L30" s="45">
+        <v>46</v>
+      </c>
+      <c r="L30" s="38">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="M30" s="45">
+        <v>35</v>
+      </c>
+      <c r="M30" s="38">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N30" s="13"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="48"/>
     </row>
     <row r="32" spans="3:16">
       <c r="G32" t="s">

--- a/Protokolle/Zeitplan.xlsx
+++ b/Protokolle/Zeitplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="5_{CADF2D00-72D3-44D1-81CC-EF5BA6381C2A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{C7116B58-0F25-45E5-8D0E-70C08426ED14}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="5_{CADF2D00-72D3-44D1-81CC-EF5BA6381C2A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{E0ED87CB-8697-4B73-8B29-536469944848}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t>****** Anmerkung: Zeitplan und Stundentafel weichen voneinander ab, da in der Studentafel weitestgehend auf Eintragung v. Dokumentation und Wochenberichten verzichtet wurde</t>
   </si>
@@ -139,6 +139,9 @@
     <t>Erweiterung d. Skills</t>
   </si>
   <si>
+    <t>***</t>
+  </si>
+  <si>
     <t>Erweiterung d. EV3-Programme</t>
   </si>
   <si>
@@ -191,6 +194,9 @@
   </si>
   <si>
     <t> = Goal finished</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = musste nicht durchgeführt werden</t>
   </si>
 </sst>
 </file>
@@ -272,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -432,19 +438,6 @@
       <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -568,50 +561,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -648,81 +704,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1029,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:Q32"/>
+  <dimension ref="C1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="I1" sqref="C1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1057,837 +1119,852 @@
       </c>
     </row>
     <row r="3" spans="3:17" ht="18.75" customHeight="1">
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="57"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="3:17" ht="15.75" customHeight="1">
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="60"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="58"/>
     </row>
     <row r="5" spans="3:17" ht="15.75">
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="44" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="53" t="s">
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="54"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="3:17" ht="15.75">
-      <c r="C6" s="7"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="17"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="1"/>
+      <c r="P6" s="2"/>
     </row>
     <row r="7" spans="3:17">
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="30" t="s">
+      <c r="E7" s="8"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" t="s">
         <v>13</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="P7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="14"/>
+      <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="3:17">
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="25"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="21"/>
     </row>
     <row r="9" spans="3:17">
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="39" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="36">
+      <c r="H9" s="32">
         <v>5</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="28">
         <f t="shared" ref="I9:I11" si="0">SUM(J9:M9)</f>
         <v>3</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="25">
         <f>10*0.3</f>
         <v>3</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="2" t="s">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="1"/>
+      <c r="O9" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="3:17">
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="9" t="s">
+      <c r="D10" s="50"/>
+      <c r="F10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="36">
+      <c r="H10" s="32">
         <v>27</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="28">
         <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="J10" s="29">
-        <v>15</v>
-      </c>
-      <c r="K10" s="29">
-        <v>9</v>
-      </c>
-      <c r="L10" s="29">
-        <v>9</v>
-      </c>
-      <c r="M10" s="9">
-        <v>8</v>
+        <v>49</v>
+      </c>
+      <c r="J10" s="25">
+        <v>17</v>
+      </c>
+      <c r="K10" s="25">
+        <v>11</v>
+      </c>
+      <c r="L10" s="25">
+        <v>11</v>
+      </c>
+      <c r="M10" s="8">
+        <v>10</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="3"/>
+      <c r="P10" s="2"/>
     </row>
     <row r="11" spans="3:17">
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="8"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="3"/>
+      <c r="P11" s="2"/>
     </row>
     <row r="12" spans="3:17">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="39" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="32">
         <v>1</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="28">
         <f>SUM(J12:M12)</f>
         <v>2</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29">
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25">
         <v>1</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <v>1</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="2" t="s">
+      <c r="O12" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="3:17">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="32">
         <v>1</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="28">
         <f t="shared" ref="I13:I29" si="1">SUM(J13:M13)</f>
         <v>9</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="25">
         <v>1</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="25">
         <v>4</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="25">
         <v>3</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <v>1</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="2" t="s">
+      <c r="O13" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="3:17">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="32">
         <v>12</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="28">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="25">
         <v>2</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="25">
         <v>4</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="25">
         <v>2</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <v>1</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="2" t="s">
+      <c r="O14" t="s">
         <v>18</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="3:17">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="32">
         <v>20</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29">
+      <c r="J15" s="25"/>
+      <c r="K15" s="25">
         <v>3</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="25">
         <v>2</v>
       </c>
-      <c r="M15" s="9"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="2" t="s">
+      <c r="O15" t="s">
         <v>18</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="3:17">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="39" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="32">
         <v>15</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="28">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="25">
         <v>3</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="25">
         <v>1</v>
       </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="9">
+      <c r="L16" s="25"/>
+      <c r="M16" s="8">
         <v>3</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="2" t="s">
+      <c r="O16" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="3:16">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="39" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="32">
         <v>15</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="9">
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="8">
         <v>2</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="2" t="s">
+      <c r="O17" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="3:16">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="36">
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="32">
         <v>10</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="28">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="25">
         <v>5</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="25">
         <v>2</v>
       </c>
-      <c r="L18" s="29">
+      <c r="L18" s="25">
         <v>2</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <v>2</v>
       </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="3"/>
+      <c r="P18" s="2"/>
     </row>
     <row r="19" spans="3:16">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="9" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="36">
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="32">
         <v>25</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="28">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29">
+      <c r="J19" s="25"/>
+      <c r="K19" s="25">
         <v>6</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="25">
         <v>4</v>
       </c>
-      <c r="M19" s="9"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="18"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="14"/>
     </row>
     <row r="20" spans="3:16">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="39" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="36">
+      <c r="H20" s="32">
         <v>22</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="9">
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="8">
         <v>2</v>
       </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="18"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="14"/>
     </row>
     <row r="21" spans="3:16">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="36">
+      <c r="E21" s="10"/>
+      <c r="F21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="32">
         <v>15</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="28">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="25">
         <v>1</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="25">
         <v>5</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="25">
         <v>3</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>3</v>
       </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="18"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="14"/>
     </row>
     <row r="22" spans="3:16">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="36">
+      <c r="E22" s="10"/>
+      <c r="F22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="32">
         <v>12</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="28">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29">
+      <c r="J22" s="25"/>
+      <c r="K22" s="25">
         <v>8</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="25">
         <v>5</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <v>6</v>
       </c>
       <c r="N22" s="1"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="18"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="14"/>
     </row>
     <row r="23" spans="3:16">
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="36">
+      <c r="E23" s="10"/>
+      <c r="F23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="32">
         <v>5</v>
       </c>
-      <c r="I23" s="32">
+      <c r="I23" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="25">
         <v>1</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="25">
         <v>1</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="25">
         <v>1</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <v>1</v>
       </c>
       <c r="N23" s="1"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="18"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="14"/>
     </row>
     <row r="24" spans="3:16">
-      <c r="C24" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="9" t="s">
+      <c r="C24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="36">
+      <c r="E24" s="10"/>
+      <c r="F24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="32">
         <v>10</v>
       </c>
-      <c r="I24" s="32">
+      <c r="I24" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="9"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="8"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="18"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="14"/>
     </row>
     <row r="25" spans="3:16">
-      <c r="C25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="9" t="s">
+      <c r="C25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="36">
+      <c r="E25" s="10"/>
+      <c r="F25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="32">
         <v>15</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="9"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="8"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="18"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="14"/>
     </row>
     <row r="26" spans="3:16">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="36">
+      <c r="E26" s="10"/>
+      <c r="F26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="32">
         <v>10</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25">
+        <v>2</v>
+      </c>
+      <c r="L26" s="25">
+        <v>2</v>
+      </c>
+      <c r="M26" s="8">
+        <v>2</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="3:16">
+      <c r="C27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="32">
+        <v>10</v>
+      </c>
+      <c r="I27" s="28">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J27" s="25">
+        <v>3</v>
+      </c>
+      <c r="K27" s="25">
+        <v>3</v>
+      </c>
+      <c r="L27" s="25">
+        <v>3</v>
+      </c>
+      <c r="M27" s="8">
+        <v>3</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="3:16">
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="8"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16">
-      <c r="C27" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="36">
-        <v>10</v>
-      </c>
-      <c r="I27" s="32">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="J27" s="29">
-        <v>3</v>
-      </c>
-      <c r="K27" s="29">
-        <v>3</v>
-      </c>
-      <c r="L27" s="29">
-        <v>3</v>
-      </c>
-      <c r="M27" s="9">
-        <v>3</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16">
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="32">
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="1"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="3:16">
+      <c r="C29" s="1"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16">
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="9"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="3"/>
+      <c r="P29" s="2"/>
     </row>
     <row r="30" spans="3:16" ht="15.75">
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="37">
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="42">
         <f>H9+H10+H11+H13+H12+H14+H15+H16+H17+H19+H20+H21+H24+H22+H25+H26+H27</f>
         <v>215</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="43">
         <f>SUM(I9:I29)</f>
-        <v>148</v>
-      </c>
-      <c r="J30" s="38">
+        <v>162</v>
+      </c>
+      <c r="J30" s="44">
         <f>SUM(J9:J29)</f>
-        <v>34</v>
-      </c>
-      <c r="K30" s="38">
+        <v>36</v>
+      </c>
+      <c r="K30" s="41">
         <f t="shared" ref="K30:M30" si="2">SUM(K9:K29)</f>
-        <v>46</v>
-      </c>
-      <c r="L30" s="38">
+        <v>50</v>
+      </c>
+      <c r="L30" s="41">
         <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="M30" s="38">
+        <v>39</v>
+      </c>
+      <c r="M30" s="40">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="48"/>
+        <v>37</v>
+      </c>
+      <c r="N30" s="12"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="46"/>
     </row>
     <row r="32" spans="3:16">
       <c r="G32" t="s">
         <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8">
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Zeitplan.xlsx
+++ b/Protokolle/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="304" documentId="5_{CADF2D00-72D3-44D1-81CC-EF5BA6381C2A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{E0ED87CB-8697-4B73-8B29-536469944848}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="5_{CADF2D00-72D3-44D1-81CC-EF5BA6381C2A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{C3425432-3D6D-4197-9AC4-1DEE1072C236}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1094,7 +1094,7 @@
   <dimension ref="C1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1256,11 +1256,10 @@
       </c>
       <c r="I9" s="28">
         <f t="shared" ref="I9:I11" si="0">SUM(J9:M9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="25">
-        <f>10*0.3</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
@@ -1286,19 +1285,19 @@
       </c>
       <c r="I10" s="28">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="J10" s="25">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K10" s="25">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L10" s="25">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M10" s="8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N10" s="1"/>
       <c r="P10" s="2"/>
@@ -1635,13 +1634,13 @@
       </c>
       <c r="I20" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
       <c r="M20" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="10"/>
@@ -1867,10 +1866,10 @@
       </c>
       <c r="I27" s="28">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J27" s="25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K27" s="25">
         <v>3</v>
@@ -1929,23 +1928,23 @@
       </c>
       <c r="I30" s="43">
         <f>SUM(I9:I29)</f>
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J30" s="44">
         <f>SUM(J9:J29)</f>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K30" s="41">
         <f t="shared" ref="K30:M30" si="2">SUM(K9:K29)</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L30" s="41">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M30" s="40">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N30" s="12"/>
       <c r="O30" s="45"/>
